--- a/src/main/resources/templates/excel/TemplateBerkahBenihBerseri.xlsx
+++ b/src/main/resources/templates/excel/TemplateBerkahBenihBerseri.xlsx
@@ -259,14 +259,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="181" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="182" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -968,19 +967,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="4" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -992,32 +989,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="5" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="6" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="7" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="2" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2257,12 +2245,12 @@
   <sheetPr/>
   <dimension ref="A1:BZ9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.42857142857143" defaultRowHeight="10.5" customHeight="1"/>
@@ -2283,7 +2271,7 @@
     <col min="17" max="17" width="14.1428571428571" style="1" customWidth="1"/>
     <col min="18" max="18" width="14.5714285714286" style="1" customWidth="1"/>
     <col min="19" max="19" width="12.7142857142857" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10" style="2" customWidth="1"/>
     <col min="21" max="22" width="9.28571428571429" style="1" customWidth="1"/>
     <col min="23" max="23" width="9.42857142857143" style="1" customWidth="1"/>
     <col min="24" max="24" width="8.85714285714286" style="1" customWidth="1"/>
@@ -2326,7 +2314,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="51" customHeight="1" spans="1:78">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2395,37 +2383,37 @@
       <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AE1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AF1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="10" t="s">
         <v>33</v>
       </c>
       <c r="AI1" s="3" t="s">
@@ -2440,7 +2428,7 @@
       <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AM1" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AN1" s="3" t="s">
@@ -2452,13 +2440,13 @@
       <c r="AP1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="14" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="14" t="s">
+      <c r="AR1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="14" t="s">
+      <c r="AS1" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AT1" s="3" t="s">
@@ -2485,10 +2473,10 @@
       <c r="BA1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="14" t="s">
+      <c r="BB1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="14" t="s">
+      <c r="BC1" s="13" t="s">
         <v>53</v>
       </c>
       <c r="BD1" s="3" t="s">
@@ -2497,19 +2485,19 @@
       <c r="BE1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="15" t="s">
+      <c r="BF1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="15" t="s">
+      <c r="BG1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="16" t="s">
+      <c r="BH1" s="15" t="s">
         <v>58</v>
       </c>
       <c r="BI1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="14" t="s">
+      <c r="BJ1" s="13" t="s">
         <v>60</v>
       </c>
       <c r="BK1" s="3" t="s">
@@ -2518,28 +2506,28 @@
       <c r="BL1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="14" t="s">
+      <c r="BM1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="17" t="s">
+      <c r="BN1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="14" t="s">
+      <c r="BO1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="14" t="s">
+      <c r="BP1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="14" t="s">
+      <c r="BQ1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="14" t="s">
+      <c r="BR1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="14" t="s">
+      <c r="BS1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" s="9" t="s">
+      <c r="BT1" s="3" t="s">
         <v>70</v>
       </c>
       <c r="BU1" s="3" t="s">
@@ -2548,78 +2536,78 @@
       <c r="BV1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="BW1" s="9" t="s">
+      <c r="BW1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BX1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BY1" s="18" t="s">
+      <c r="BY1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BZ1" s="18" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="35:71">
-      <c r="AI4" s="13"/>
-      <c r="BL4" s="13"/>
-      <c r="BM4" s="13"/>
-      <c r="BO4" s="13"/>
-      <c r="BP4" s="13"/>
-      <c r="BQ4" s="13"/>
-      <c r="BR4" s="13"/>
-      <c r="BS4" s="13"/>
+      <c r="AI4" s="12"/>
+      <c r="BL4" s="12"/>
+      <c r="BM4" s="12"/>
+      <c r="BO4" s="12"/>
+      <c r="BP4" s="12"/>
+      <c r="BQ4" s="12"/>
+      <c r="BR4" s="12"/>
+      <c r="BS4" s="12"/>
     </row>
     <row r="5" customHeight="1" spans="35:71">
-      <c r="AI5" s="13"/>
-      <c r="BL5" s="13"/>
-      <c r="BM5" s="13"/>
-      <c r="BO5" s="13"/>
-      <c r="BP5" s="13"/>
-      <c r="BQ5" s="13"/>
-      <c r="BR5" s="13"/>
-      <c r="BS5" s="13"/>
+      <c r="AI5" s="12"/>
+      <c r="BL5" s="12"/>
+      <c r="BM5" s="12"/>
+      <c r="BO5" s="12"/>
+      <c r="BP5" s="12"/>
+      <c r="BQ5" s="12"/>
+      <c r="BR5" s="12"/>
+      <c r="BS5" s="12"/>
     </row>
     <row r="6" customHeight="1" spans="35:71">
-      <c r="AI6" s="13"/>
-      <c r="BL6" s="13"/>
-      <c r="BM6" s="13"/>
-      <c r="BO6" s="13"/>
-      <c r="BP6" s="13"/>
-      <c r="BQ6" s="13"/>
-      <c r="BR6" s="13"/>
-      <c r="BS6" s="13"/>
+      <c r="AI6" s="12"/>
+      <c r="BL6" s="12"/>
+      <c r="BM6" s="12"/>
+      <c r="BO6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BQ6" s="12"/>
+      <c r="BR6" s="12"/>
+      <c r="BS6" s="12"/>
     </row>
     <row r="7" customHeight="1" spans="35:71">
-      <c r="AI7" s="13"/>
-      <c r="BL7" s="13"/>
-      <c r="BM7" s="13"/>
-      <c r="BO7" s="13"/>
-      <c r="BP7" s="13"/>
-      <c r="BQ7" s="13"/>
-      <c r="BR7" s="13"/>
-      <c r="BS7" s="13"/>
+      <c r="AI7" s="12"/>
+      <c r="BL7" s="12"/>
+      <c r="BM7" s="12"/>
+      <c r="BO7" s="12"/>
+      <c r="BP7" s="12"/>
+      <c r="BQ7" s="12"/>
+      <c r="BR7" s="12"/>
+      <c r="BS7" s="12"/>
     </row>
     <row r="8" customHeight="1" spans="35:71">
-      <c r="AI8" s="13"/>
-      <c r="BL8" s="13"/>
-      <c r="BM8" s="13"/>
-      <c r="BO8" s="13"/>
-      <c r="BP8" s="13"/>
-      <c r="BQ8" s="13"/>
-      <c r="BR8" s="13"/>
-      <c r="BS8" s="13"/>
+      <c r="AI8" s="12"/>
+      <c r="BL8" s="12"/>
+      <c r="BM8" s="12"/>
+      <c r="BO8" s="12"/>
+      <c r="BP8" s="12"/>
+      <c r="BQ8" s="12"/>
+      <c r="BR8" s="12"/>
+      <c r="BS8" s="12"/>
     </row>
     <row r="9" customHeight="1" spans="35:71">
-      <c r="AI9" s="13"/>
-      <c r="BL9" s="13"/>
-      <c r="BM9" s="13"/>
-      <c r="BO9" s="13"/>
-      <c r="BP9" s="13"/>
-      <c r="BQ9" s="13"/>
-      <c r="BR9" s="13"/>
-      <c r="BS9" s="13"/>
+      <c r="AI9" s="12"/>
+      <c r="BL9" s="12"/>
+      <c r="BM9" s="12"/>
+      <c r="BO9" s="12"/>
+      <c r="BP9" s="12"/>
+      <c r="BQ9" s="12"/>
+      <c r="BR9" s="12"/>
+      <c r="BS9" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:D1">

--- a/src/main/resources/templates/excel/TemplateBerkahBenihBerseri.xlsx
+++ b/src/main/resources/templates/excel/TemplateBerkahBenihBerseri.xlsx
@@ -4,11 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DEFAULT" sheetId="2" r:id="rId1"/>
+    <sheet name="INVOICE" sheetId="3" r:id="rId1"/>
+    <sheet name="Benih Berkah Berseri" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="___xlnm.Database">"#REF!"</definedName>
+    <definedName name="___xlnm.Database_1">"#REF!"</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +32,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="102">
+  <si>
+    <t>Invoice PT. Benih Berkah Berseri</t>
+  </si>
+  <si>
+    <t>Periode 16 Maret 2025 sd 15 April 2025</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
+  <si>
+    <t>Management Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>Penggajian PT. Benih Berkah Berseri</t>
+  </si>
+  <si>
+    <t>Manfee 7%</t>
+  </si>
+  <si>
+    <t>Insentif PT Benih Berkah Berseri</t>
+  </si>
+  <si>
+    <t>Manfee 5%</t>
+  </si>
+  <si>
+    <t>TOTAL (Sebelum Pajak)</t>
+  </si>
+  <si>
+    <t>PPN</t>
+  </si>
+  <si>
+    <t>PPh 23</t>
+  </si>
+  <si>
+    <t>TOTAL (Setelah Pajak)</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL</t>
+  </si>
+  <si>
+    <t>Jakarta, 19 April 2025</t>
+  </si>
+  <si>
+    <t>Dibuat Oleh,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diperiksa Oleh, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diverifikasi Oleh, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disetujui Oleh, </t>
+  </si>
+  <si>
+    <t>HR Compensation and Benefit</t>
+  </si>
+  <si>
+    <t>Business Development</t>
+  </si>
+  <si>
+    <t>Business Development Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direktur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diketahui Oleh, </t>
+  </si>
+  <si>
+    <t>Manager Finance &amp; Accounting</t>
+  </si>
+  <si>
+    <t>Direktur SDM &amp; Keuangan</t>
+  </si>
   <si>
     <t>No.</t>
   </si>
@@ -229,12 +321,6 @@
   </si>
   <si>
     <t>Mgt Fee</t>
-  </si>
-  <si>
-    <t>PPN</t>
-  </si>
-  <si>
-    <t>PPh 23</t>
   </si>
   <si>
     <t>Total Invoice</t>
@@ -259,15 +345,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="9">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="181" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="0.0%"/>
+    <numFmt numFmtId="184" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="32">
     <font>
       <sz val="9"/>
       <color indexed="8"/>
@@ -286,6 +375,59 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -446,7 +588,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,6 +633,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -676,7 +824,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -703,6 +851,76 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -811,163 +1029,164 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="62">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1008,8 +1227,61 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="62" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="62" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="62" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="62" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="62" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="6" fillId="7" borderId="2" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="62" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="62" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="62" applyFont="1"/>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="62" applyFont="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="62" applyFont="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="62" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="62">
+  <cellStyles count="63">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1072,6 +1344,7 @@
     <cellStyle name="Normal 7 2" xfId="59"/>
     <cellStyle name="Normal 10 3 4 10 4 3 2 3" xfId="60"/>
     <cellStyle name="Normal 10 3 4 10 4 3 2 3 2 2" xfId="61"/>
+    <cellStyle name="Normal 3" xfId="62"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2243,6 +2516,421 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="9.14285714285714" style="16"/>
+    <col min="2" max="2" width="39.8571428571429" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.8571428571429" style="16" customWidth="1"/>
+    <col min="4" max="4" width="6.57142857142857" style="16" customWidth="1"/>
+    <col min="5" max="5" width="13.5714285714286" style="16" customWidth="1"/>
+    <col min="6" max="6" width="16.4285714285714" style="16" customWidth="1"/>
+    <col min="7" max="7" width="23.8571428571429" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:7">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" ht="15" spans="1:7">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" ht="15" spans="1:7">
+      <c r="A3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:7">
+      <c r="A4" s="23">
+        <v>1</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26">
+        <v>0.07</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:7">
+      <c r="A5" s="23">
+        <v>2</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:7">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="28"/>
+    </row>
+    <row r="7" ht="15" spans="1:7">
+      <c r="A7" s="33"/>
+      <c r="B7" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" ht="15" spans="1:7">
+      <c r="A8" s="33"/>
+      <c r="B8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="34">
+        <v>0.11</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" ht="15" spans="1:7">
+      <c r="A9" s="33"/>
+      <c r="B9" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" ht="15" spans="1:7">
+      <c r="A10" s="33"/>
+      <c r="B10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" ht="15" spans="1:7">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" ht="15" spans="1:7">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+    </row>
+    <row r="13" ht="15" spans="1:7">
+      <c r="A13" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+    </row>
+    <row r="14" ht="15" spans="1:7">
+      <c r="A14" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:7">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+    </row>
+    <row r="16" ht="15" spans="1:7">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+    </row>
+    <row r="17" ht="15" spans="1:7">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="41"/>
+    </row>
+    <row r="18" ht="15" spans="1:7">
+      <c r="A18" s="44"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+    </row>
+    <row r="19" ht="15" spans="1:7">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+    </row>
+    <row r="20" ht="15" spans="1:7">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+    </row>
+    <row r="21" ht="15" spans="1:7">
+      <c r="A21" s="46"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+    </row>
+    <row r="22" ht="15" spans="1:7">
+      <c r="A22" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:7">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" ht="15" spans="1:7">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+    </row>
+    <row r="25" ht="15" spans="1:7">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+    </row>
+    <row r="26" ht="15" spans="1:7">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:7">
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+    </row>
+    <row r="28" ht="15" spans="1:7">
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+    </row>
+    <row r="29" ht="15" spans="1:7">
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+    </row>
+    <row r="30" ht="15" spans="1:7">
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+    </row>
+    <row r="31" ht="15" spans="1:7">
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+    </row>
+    <row r="32" ht="15" spans="1:7">
+      <c r="A32" s="44"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+    </row>
+    <row r="33" ht="15" spans="1:7">
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+    </row>
+    <row r="34" ht="15" spans="1:7">
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:7">
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BZ9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -2250,7 +2938,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.42857142857143" defaultRowHeight="10.5" customHeight="1"/>
@@ -2315,238 +3003,238 @@
   <sheetData>
     <row r="1" ht="51" customHeight="1" spans="1:78">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="N1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="BP1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="BR1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="10" t="s">
+      <c r="BS1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="BT1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BW1" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="BX1" s="3" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="BY1" s="4" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="BZ1" s="4" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="35:71">

--- a/src/main/resources/templates/excel/TemplateBerkahBenihBerseri.xlsx
+++ b/src/main/resources/templates/excel/TemplateBerkahBenihBerseri.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -1445,6 +1445,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2519,7 +2526,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelCol="6"/>
